--- a/respuestas salida.xlsx
+++ b/respuestas salida.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,33 +33,15 @@
     <t>Hola muy bien y usted</t>
   </si>
   <si>
-    <t>Hola cómo está</t>
-  </si>
-  <si>
     <t>CLASE</t>
   </si>
   <si>
     <t>RESPUESTA</t>
   </si>
   <si>
-    <t>Mi nombre Robotin</t>
-  </si>
-  <si>
-    <t>Me llamo Robotin</t>
-  </si>
-  <si>
-    <t>Robotin</t>
-  </si>
-  <si>
-    <t>Robotin es mi nombre</t>
-  </si>
-  <si>
     <t>Muy buenos días humano</t>
   </si>
   <si>
-    <t>Buenos días</t>
-  </si>
-  <si>
     <t>Buenos días amig@</t>
   </si>
   <si>
@@ -76,6 +58,24 @@
   </si>
   <si>
     <t>Hasta luego</t>
+  </si>
+  <si>
+    <t>Hola cómo está, en qué puedo ayudarlo</t>
+  </si>
+  <si>
+    <t>Buenos días, en qué puedo ayudarlo</t>
+  </si>
+  <si>
+    <t>Me llamo Robotin, estoy a sus ordenes</t>
+  </si>
+  <si>
+    <t>Mi nombre es Robotin y hoy les estaré ayudando</t>
+  </si>
+  <si>
+    <t>Robotin es mi nombre, cómo puedo ayudarle</t>
+  </si>
+  <si>
+    <t>Mi nombre Robotin, estoy acá para ayudarle</t>
   </si>
 </sst>
 </file>
@@ -396,31 +396,31 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -428,97 +428,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
